--- a/data/trans_camb/P42C_R-Estudios-trans_camb.xlsx
+++ b/data/trans_camb/P42C_R-Estudios-trans_camb.xlsx
@@ -583,10 +583,10 @@
         </is>
       </c>
       <c r="C5" s="5" t="n">
-        <v>-12.09657712768317</v>
+        <v>-12.01965967771611</v>
       </c>
       <c r="D5" s="5" t="n">
-        <v>-9.717765549141742</v>
+        <v>-9.678882809947552</v>
       </c>
     </row>
     <row r="6">
@@ -597,10 +597,10 @@
         </is>
       </c>
       <c r="C6" s="5" t="n">
-        <v>-6.513402722253547</v>
+        <v>-6.341793188477812</v>
       </c>
       <c r="D6" s="5" t="n">
-        <v>-3.722830092372542</v>
+        <v>-3.383674004700385</v>
       </c>
     </row>
     <row r="7">
@@ -625,10 +625,10 @@
         </is>
       </c>
       <c r="C8" s="6" t="n">
-        <v>-0.8273894871100315</v>
+        <v>-0.8256154652075212</v>
       </c>
       <c r="D8" s="6" t="n">
-        <v>-0.6694126906450272</v>
+        <v>-0.6627382972416312</v>
       </c>
     </row>
     <row r="9">
@@ -639,10 +639,10 @@
         </is>
       </c>
       <c r="C9" s="6" t="n">
-        <v>-0.5541426759003277</v>
+        <v>-0.5509154691926991</v>
       </c>
       <c r="D9" s="6" t="n">
-        <v>-0.3106313088992899</v>
+        <v>-0.2782248746421617</v>
       </c>
     </row>
     <row r="10">
@@ -660,7 +660,7 @@
         <v>-11.24097670851233</v>
       </c>
       <c r="D10" s="5" t="n">
-        <v>-2.918168859013728</v>
+        <v>-2.918168859013734</v>
       </c>
     </row>
     <row r="11">
@@ -671,10 +671,10 @@
         </is>
       </c>
       <c r="C11" s="5" t="n">
-        <v>-14.64379513612147</v>
+        <v>-14.59926932766944</v>
       </c>
       <c r="D11" s="5" t="n">
-        <v>-6.394344628062244</v>
+        <v>-6.659234384631683</v>
       </c>
     </row>
     <row r="12">
@@ -685,10 +685,10 @@
         </is>
       </c>
       <c r="C12" s="5" t="n">
-        <v>-8.566886928130909</v>
+        <v>-8.344925609202008</v>
       </c>
       <c r="D12" s="5" t="n">
-        <v>0.5183134458012225</v>
+        <v>0.5785154870968477</v>
       </c>
     </row>
     <row r="13">
@@ -702,7 +702,7 @@
         <v>-0.441519561075136</v>
       </c>
       <c r="D13" s="6" t="n">
-        <v>-0.1146189221083607</v>
+        <v>-0.1146189221083609</v>
       </c>
     </row>
     <row r="14">
@@ -713,10 +713,10 @@
         </is>
       </c>
       <c r="C14" s="6" t="n">
-        <v>-0.5384074443201134</v>
+        <v>-0.5279704968291072</v>
       </c>
       <c r="D14" s="6" t="n">
-        <v>-0.2302443502499906</v>
+        <v>-0.2405191687897842</v>
       </c>
     </row>
     <row r="15">
@@ -727,10 +727,10 @@
         </is>
       </c>
       <c r="C15" s="6" t="n">
-        <v>-0.3594296833903977</v>
+        <v>-0.3507267967147585</v>
       </c>
       <c r="D15" s="6" t="n">
-        <v>0.02223912535480241</v>
+        <v>0.02488675415175518</v>
       </c>
     </row>
     <row r="16">
@@ -759,10 +759,10 @@
         </is>
       </c>
       <c r="C17" s="5" t="n">
-        <v>-16.16514333985075</v>
+        <v>-15.9465784574002</v>
       </c>
       <c r="D17" s="5" t="n">
-        <v>-4.305074430576221</v>
+        <v>-4.759996495711029</v>
       </c>
     </row>
     <row r="18">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="C18" s="5" t="n">
-        <v>-1.766874374026868</v>
+        <v>-2.17437969120722</v>
       </c>
       <c r="D18" s="5" t="n">
-        <v>9.370972668558332</v>
+        <v>9.091849624890051</v>
       </c>
     </row>
     <row r="19">
@@ -801,10 +801,10 @@
         </is>
       </c>
       <c r="C20" s="6" t="n">
-        <v>-0.3208879833246265</v>
+        <v>-0.3208464688788198</v>
       </c>
       <c r="D20" s="6" t="n">
-        <v>-0.08672137313233953</v>
+        <v>-0.09605670943084381</v>
       </c>
     </row>
     <row r="21">
@@ -815,10 +815,10 @@
         </is>
       </c>
       <c r="C21" s="6" t="n">
-        <v>-0.04275290979758574</v>
+        <v>-0.05309028909166934</v>
       </c>
       <c r="D21" s="6" t="n">
-        <v>0.2228274158579893</v>
+        <v>0.2227422500393315</v>
       </c>
     </row>
     <row r="22">
@@ -836,7 +836,7 @@
         <v>-8.445653168455877</v>
       </c>
       <c r="D22" s="5" t="n">
-        <v>0.3589970841417656</v>
+        <v>0.35899708414176</v>
       </c>
     </row>
     <row r="23">
@@ -847,10 +847,10 @@
         </is>
       </c>
       <c r="C23" s="5" t="n">
-        <v>-10.66096646887428</v>
+        <v>-10.70522175791411</v>
       </c>
       <c r="D23" s="5" t="n">
-        <v>-1.926161887557055</v>
+        <v>-1.870818795966106</v>
       </c>
     </row>
     <row r="24">
@@ -861,10 +861,10 @@
         </is>
       </c>
       <c r="C24" s="5" t="n">
-        <v>-6.017881060866653</v>
+        <v>-6.340941426174915</v>
       </c>
       <c r="D24" s="5" t="n">
-        <v>2.63325041546912</v>
+        <v>2.662830003802391</v>
       </c>
     </row>
     <row r="25">
@@ -878,7 +878,7 @@
         <v>-0.3530659784800687</v>
       </c>
       <c r="D25" s="6" t="n">
-        <v>0.01500767960226073</v>
+        <v>0.0150076796022605</v>
       </c>
     </row>
     <row r="26">
@@ -889,10 +889,10 @@
         </is>
       </c>
       <c r="C26" s="6" t="n">
-        <v>-0.4244286022264249</v>
+        <v>-0.4248166278355043</v>
       </c>
       <c r="D26" s="6" t="n">
-        <v>-0.0777013018023958</v>
+        <v>-0.07654385814769513</v>
       </c>
     </row>
     <row r="27">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="C27" s="6" t="n">
-        <v>-0.2666306025729935</v>
+        <v>-0.2812816403061155</v>
       </c>
       <c r="D27" s="6" t="n">
-        <v>0.1167217685774597</v>
+        <v>0.1178467771613471</v>
       </c>
     </row>
     <row r="28">
